--- a/table/env_wilcox_table.xlsx
+++ b/table/env_wilcox_table.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="wilcox_table" sheetId="1" r:id="rId1"/>
+    <sheet name="wilcox_table_selected" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1082,4 +1083,297 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>.y.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>group1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>group2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>n1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>n2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Chla</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OR1-1219</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>OR1-1242</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>0.00433</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OR1-1219</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>OR1-1242</t>
+        </is>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D50</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OR1-1219</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>OR1-1242</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>0.329</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fluorescence</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OR1-1219</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>OR1-1242</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>0.662</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Porosity</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OR1-1219</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>OR1-1242</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OR1-1219</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OR1-1242</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TOC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OR1-1219</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OR1-1242</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>0.662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>